--- a/[Si] Leaves for CB/Notes/leves.xlsx
+++ b/[Si] Leaves for CB/Notes/leves.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Steam\Steam\steamapps\common\Stardew Valley\Si's Projects\Leaves\[Si] Leaves for CB\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Steam\Steam\steamapps\common\Stardew Valley\SiMods\[Si]\CBLeaves\[Si] Leaves for CB\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58F8A10-9CB0-4818-BF50-E91B6C0C1DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E6E484-C2AF-440F-B5EF-8E03C8B9DF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="43">
   <si>
     <t>Leaf</t>
   </si>
@@ -47,18 +47,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Art</t>
-  </si>
-  <si>
-    <t>CB</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
     <t>Bigleaf Maple</t>
   </si>
   <si>
@@ -125,9 +113,6 @@
     <t>FRUIT TREES</t>
   </si>
   <si>
-    <t>BUSHES</t>
-  </si>
-  <si>
     <t>Salmonberry</t>
   </si>
   <si>
@@ -155,19 +140,31 @@
     <t>Spring 15-18</t>
   </si>
   <si>
-    <t>CROP LEAVES</t>
-  </si>
-  <si>
     <t>Cauliflower</t>
   </si>
   <si>
     <t>Blueberry</t>
   </si>
   <si>
-    <t>Gen</t>
-  </si>
-  <si>
     <t>Cranberry</t>
+  </si>
+  <si>
+    <t>Wildberries</t>
+  </si>
+  <si>
+    <t>Spiceberry</t>
+  </si>
+  <si>
+    <t>Holly</t>
+  </si>
+  <si>
+    <t>FRUITS</t>
+  </si>
+  <si>
+    <t>Berries</t>
+  </si>
+  <si>
+    <t>Crops</t>
   </si>
 </sst>
 </file>
@@ -191,7 +188,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +198,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,12 +226,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,25 +513,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33:M34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -532,426 +539,438 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="H5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="H8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="H32" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="H39" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="H40" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="H44" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>10</v>
+      <c r="E51" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
